--- a/需求分析/集中营电商平台功能分析.xlsx
+++ b/需求分析/集中营电商平台功能分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="15380" tabRatio="532"/>
+    <workbookView xWindow="15880" yWindow="280" windowWidth="18600" windowHeight="15380" tabRatio="532"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="2" r:id="rId1"/>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>新建商品，修改价格设定，货品数量，提交审核</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>订单信息</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -454,10 +450,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核上架</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -482,6 +474,14 @@
   </si>
   <si>
     <t>账户余额，账户充值，白条额度，白条总额度，白条还款</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建商品，修改价格设定，货品数量，提交审核</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过则上架，不通过则退回业务员权限重新编辑</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,6 +1496,18 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2176,6 +2188,15 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2186,48 +2207,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="18" fillId="3" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="31" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="18" fillId="3" borderId="31" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="18" fillId="3" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,6 +2242,15 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="31" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,6 +2270,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="18" fillId="3" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="31" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="18" fillId="3" borderId="31" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="18" fillId="3" borderId="34" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2330,7 +2342,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="68">
     <cellStyle name="標準_【UMK】改修工数見積書_051108（POW）_日本側見解_20070515-JTB京都おこしやすシステム 見積もり(5月以降作業分)(長沙)_ＣＴＳ－Ｇ／ＷのＰＤ書作成工数見積もり(chinki)" xfId="5"/>
     <cellStyle name="標準_開発体制図" xfId="8"/>
     <cellStyle name="標準_開発体制図 2" xfId="4"/>
@@ -2370,6 +2382,8 @@
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
@@ -2394,6 +2408,8 @@
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4488,7 +4504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -4512,12 +4528,12 @@
         <v>107</v>
       </c>
       <c r="C1" s="171"/>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="186"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="189"/>
       <c r="H1" s="172"/>
       <c r="I1" s="173"/>
       <c r="J1" s="153"/>
@@ -4985,7 +5001,7 @@
       <c r="HO2"/>
     </row>
     <row r="3" spans="1:223" ht="21" customHeight="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="184" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="174" t="s">
@@ -5011,7 +5027,7 @@
       <c r="K3" s="158"/>
     </row>
     <row r="4" spans="1:223" ht="21" customHeight="1">
-      <c r="B4" s="188"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="174" t="s">
         <v>109</v>
       </c>
@@ -5025,7 +5041,7 @@
       <c r="K4" s="168"/>
     </row>
     <row r="5" spans="1:223" ht="21" customHeight="1">
-      <c r="B5" s="189"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="174" t="s">
         <v>60</v>
       </c>
@@ -5071,7 +5087,7 @@
       <c r="K6" s="158"/>
     </row>
     <row r="7" spans="1:223">
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="184" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="174" t="s">
@@ -5095,7 +5111,7 @@
       <c r="K7" s="158"/>
     </row>
     <row r="8" spans="1:223">
-      <c r="B8" s="188"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="174" t="s">
         <v>105</v>
       </c>
@@ -5117,7 +5133,7 @@
       <c r="K8" s="168"/>
     </row>
     <row r="9" spans="1:223">
-      <c r="B9" s="188"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="174" t="s">
         <v>106</v>
       </c>
@@ -5139,7 +5155,7 @@
       <c r="K9" s="158"/>
     </row>
     <row r="10" spans="1:223">
-      <c r="B10" s="188"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="174" t="s">
         <v>63</v>
       </c>
@@ -5161,7 +5177,7 @@
       <c r="K10" s="158"/>
     </row>
     <row r="11" spans="1:223" ht="21" customHeight="1">
-      <c r="B11" s="189"/>
+      <c r="B11" s="185"/>
       <c r="C11" s="174" t="s">
         <v>64</v>
       </c>
@@ -5395,7 +5411,7 @@
       <c r="HO11"/>
     </row>
     <row r="12" spans="1:223" ht="21" customHeight="1">
-      <c r="B12" s="187" t="s">
+      <c r="B12" s="184" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="190" t="s">
@@ -5410,10 +5426,10 @@
       <c r="F12" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="187" t="s">
+      <c r="G12" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="187"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="178"/>
       <c r="J12" s="179"/>
       <c r="K12" s="160"/>
@@ -5631,13 +5647,13 @@
       <c r="HO12"/>
     </row>
     <row r="13" spans="1:223" ht="21" customHeight="1">
-      <c r="B13" s="188"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="191"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
       <c r="I13" s="178"/>
       <c r="J13" s="179"/>
       <c r="K13" s="160"/>
@@ -5855,7 +5871,7 @@
       <c r="HO13"/>
     </row>
     <row r="14" spans="1:223" ht="21" customHeight="1">
-      <c r="B14" s="188"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="190" t="s">
         <v>110</v>
       </c>
@@ -5868,10 +5884,10 @@
       <c r="F14" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="187" t="s">
+      <c r="G14" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="187"/>
+      <c r="H14" s="184"/>
       <c r="I14" s="178"/>
       <c r="J14" s="179"/>
       <c r="K14" s="160"/>
@@ -6089,13 +6105,13 @@
       <c r="HO14"/>
     </row>
     <row r="15" spans="1:223" ht="21" customHeight="1">
-      <c r="B15" s="189"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="191"/>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="178"/>
       <c r="J15" s="179"/>
       <c r="K15" s="160"/>
@@ -6313,7 +6329,7 @@
       <c r="HO15"/>
     </row>
     <row r="16" spans="1:223">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="184" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="174" t="s">
@@ -6549,7 +6565,7 @@
       <c r="HO16"/>
     </row>
     <row r="17" spans="1:223" ht="21" customHeight="1">
-      <c r="B17" s="189"/>
+      <c r="B17" s="185"/>
       <c r="C17" s="174" t="s">
         <v>70</v>
       </c>
@@ -7023,7 +7039,7 @@
       <c r="HO18"/>
     </row>
     <row r="19" spans="1:223" ht="21" customHeight="1">
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="184" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="174" t="s">
@@ -7261,7 +7277,7 @@
       <c r="HO19"/>
     </row>
     <row r="20" spans="1:223" ht="19" customHeight="1">
-      <c r="B20" s="188"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="174" t="s">
         <v>78</v>
       </c>
@@ -7278,7 +7294,7 @@
         <v>103</v>
       </c>
       <c r="H20" s="174" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I20" s="178"/>
       <c r="J20" s="179"/>
@@ -7498,7 +7514,7 @@
     </row>
     <row r="21" spans="1:223" ht="21" customHeight="1">
       <c r="A21" s="156"/>
-      <c r="B21" s="188"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="174" t="s">
         <v>79</v>
       </c>
@@ -7523,7 +7539,7 @@
     </row>
     <row r="22" spans="1:223" ht="21" customHeight="1">
       <c r="A22" s="156"/>
-      <c r="B22" s="189"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="174" t="s">
         <v>91</v>
       </c>
@@ -7548,7 +7564,7 @@
     </row>
     <row r="23" spans="1:223" ht="21" customHeight="1">
       <c r="A23" s="156"/>
-      <c r="B23" s="187" t="s">
+      <c r="B23" s="184" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="174" t="s">
@@ -7574,7 +7590,7 @@
       <c r="K23" s="168"/>
     </row>
     <row r="24" spans="1:223">
-      <c r="B24" s="188"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="174" t="s">
         <v>111</v>
       </c>
@@ -7591,40 +7607,40 @@
         <v>103</v>
       </c>
       <c r="H24" s="174" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I24" s="178"/>
       <c r="J24" s="179"/>
       <c r="K24" s="161"/>
     </row>
     <row r="25" spans="1:223">
-      <c r="B25" s="188"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="175" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="E25" s="180" t="s">
         <v>115</v>
-      </c>
-      <c r="E25" s="180" t="s">
-        <v>116</v>
       </c>
       <c r="F25" s="183" t="s">
         <v>94</v>
       </c>
       <c r="G25" s="175" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="174" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I25" s="181"/>
       <c r="J25" s="182"/>
       <c r="K25" s="168"/>
     </row>
     <row r="26" spans="1:223">
-      <c r="B26" s="188"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="174" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="175" t="s">
         <v>103</v>
@@ -7858,7 +7874,7 @@
       <c r="HO26"/>
     </row>
     <row r="27" spans="1:223">
-      <c r="B27" s="188"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="174" t="s">
         <v>83</v>
       </c>
@@ -8094,7 +8110,7 @@
       <c r="HO27"/>
     </row>
     <row r="28" spans="1:223" ht="21" customHeight="1">
-      <c r="B28" s="189"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="174" t="s">
         <v>84</v>
       </c>
@@ -8118,33 +8134,33 @@
       <c r="K28" s="158"/>
     </row>
     <row r="29" spans="1:223" ht="21" customHeight="1">
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="184" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="174" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="175" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E29" s="175" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="183" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="183" t="s">
         <v>94</v>
       </c>
       <c r="H29" s="174" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I29" s="181"/>
       <c r="J29" s="182"/>
       <c r="K29" s="168"/>
     </row>
     <row r="30" spans="1:223" ht="21" customHeight="1">
-      <c r="B30" s="189"/>
+      <c r="B30" s="185"/>
       <c r="C30" s="174" t="s">
         <v>93</v>
       </c>
@@ -8161,7 +8177,7 @@
         <v>94</v>
       </c>
       <c r="H30" s="174" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I30" s="178"/>
       <c r="J30" s="179"/>
@@ -9402,13 +9418,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B3:B5"/>
@@ -9422,6 +9431,13 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.31458333333333299" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.39305555555555599" footer="0.51180555555555596"/>
@@ -9788,102 +9804,102 @@
     </row>
     <row r="5" spans="1:246" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="47"/>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="214"/>
-      <c r="T5" s="214"/>
-      <c r="U5" s="214"/>
-      <c r="V5" s="214"/>
-      <c r="W5" s="217"/>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="215"/>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
-      <c r="AC5" s="216"/>
-      <c r="AD5" s="213"/>
-      <c r="AE5" s="215"/>
-      <c r="AF5" s="215"/>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="216"/>
-      <c r="AJ5" s="213"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="215"/>
-      <c r="AM5" s="215"/>
-      <c r="AN5" s="215"/>
-      <c r="AO5" s="216"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="209"/>
+      <c r="P5" s="209"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="208"/>
+      <c r="T5" s="208"/>
+      <c r="U5" s="208"/>
+      <c r="V5" s="208"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="209"/>
+      <c r="Z5" s="209"/>
+      <c r="AA5" s="209"/>
+      <c r="AB5" s="209"/>
+      <c r="AC5" s="210"/>
+      <c r="AD5" s="207"/>
+      <c r="AE5" s="209"/>
+      <c r="AF5" s="209"/>
+      <c r="AG5" s="209"/>
+      <c r="AH5" s="209"/>
+      <c r="AI5" s="210"/>
+      <c r="AJ5" s="207"/>
+      <c r="AK5" s="209"/>
+      <c r="AL5" s="209"/>
+      <c r="AM5" s="209"/>
+      <c r="AN5" s="209"/>
+      <c r="AO5" s="210"/>
       <c r="AP5" s="146"/>
     </row>
     <row r="6" spans="1:246" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="47"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="206"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="196">
+      <c r="B6" s="196"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="212">
         <v>42370</v>
       </c>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="196">
+      <c r="M6" s="213"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="212">
         <v>42401</v>
       </c>
-      <c r="S6" s="197"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="196">
+      <c r="S6" s="213"/>
+      <c r="T6" s="214"/>
+      <c r="U6" s="214"/>
+      <c r="V6" s="214"/>
+      <c r="W6" s="215"/>
+      <c r="X6" s="212">
         <v>42430</v>
       </c>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="198"/>
-      <c r="AA6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="199"/>
-      <c r="AD6" s="196">
+      <c r="Y6" s="213"/>
+      <c r="Z6" s="214"/>
+      <c r="AA6" s="214"/>
+      <c r="AB6" s="214"/>
+      <c r="AC6" s="215"/>
+      <c r="AD6" s="212">
         <v>42461</v>
       </c>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="198"/>
-      <c r="AG6" s="198"/>
-      <c r="AH6" s="198"/>
-      <c r="AI6" s="199"/>
-      <c r="AJ6" s="196">
+      <c r="AE6" s="213"/>
+      <c r="AF6" s="214"/>
+      <c r="AG6" s="214"/>
+      <c r="AH6" s="214"/>
+      <c r="AI6" s="215"/>
+      <c r="AJ6" s="212">
         <v>42491</v>
       </c>
-      <c r="AK6" s="200"/>
-      <c r="AL6" s="200"/>
-      <c r="AM6" s="200"/>
-      <c r="AN6" s="200"/>
-      <c r="AO6" s="201"/>
+      <c r="AK6" s="216"/>
+      <c r="AL6" s="216"/>
+      <c r="AM6" s="216"/>
+      <c r="AN6" s="216"/>
+      <c r="AO6" s="217"/>
       <c r="AP6" s="145"/>
     </row>
     <row r="7" spans="1:246" s="39" customFormat="1" ht="4" customHeight="1">
@@ -10777,14 +10793,14 @@
       <c r="AA26" s="91"/>
       <c r="AB26" s="91"/>
       <c r="AC26" s="119"/>
-      <c r="AD26" s="208" t="s">
+      <c r="AD26" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="AE26" s="209"/>
-      <c r="AF26" s="209"/>
-      <c r="AG26" s="209"/>
-      <c r="AH26" s="209"/>
-      <c r="AI26" s="210"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="200"/>
+      <c r="AI26" s="201"/>
       <c r="AJ26" s="91"/>
       <c r="AL26" s="91"/>
       <c r="AM26" s="91"/>
@@ -10914,18 +10930,18 @@
       <c r="AC29" s="119"/>
       <c r="AD29" s="90"/>
       <c r="AE29" s="91"/>
-      <c r="AF29" s="193" t="s">
+      <c r="AF29" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AG29" s="194"/>
-      <c r="AH29" s="194"/>
-      <c r="AI29" s="194"/>
-      <c r="AJ29" s="194"/>
-      <c r="AK29" s="194"/>
-      <c r="AL29" s="194"/>
-      <c r="AM29" s="194"/>
-      <c r="AN29" s="194"/>
-      <c r="AO29" s="195"/>
+      <c r="AG29" s="203"/>
+      <c r="AH29" s="203"/>
+      <c r="AI29" s="203"/>
+      <c r="AJ29" s="203"/>
+      <c r="AK29" s="203"/>
+      <c r="AL29" s="203"/>
+      <c r="AM29" s="203"/>
+      <c r="AN29" s="203"/>
+      <c r="AO29" s="204"/>
       <c r="AP29" s="145"/>
     </row>
     <row r="30" spans="1:44" s="39" customFormat="1" ht="4" customHeight="1">
@@ -11050,8 +11066,8 @@
       <c r="AC32" s="119"/>
       <c r="AD32" s="91"/>
       <c r="AE32" s="91"/>
-      <c r="AF32" s="211"/>
-      <c r="AG32" s="212"/>
+      <c r="AF32" s="205"/>
+      <c r="AG32" s="206"/>
       <c r="AH32" s="91"/>
       <c r="AI32" s="119"/>
       <c r="AJ32" s="91"/>
@@ -11185,8 +11201,8 @@
       <c r="AE35" s="91"/>
       <c r="AF35" s="91"/>
       <c r="AG35" s="91"/>
-      <c r="AH35" s="211"/>
-      <c r="AI35" s="212"/>
+      <c r="AH35" s="205"/>
+      <c r="AI35" s="206"/>
       <c r="AJ35" s="91"/>
       <c r="AK35" s="91"/>
       <c r="AL35" s="91"/>
@@ -11321,12 +11337,12 @@
       <c r="AG38" s="91"/>
       <c r="AH38" s="91"/>
       <c r="AI38" s="119"/>
-      <c r="AJ38" s="193"/>
-      <c r="AK38" s="194"/>
-      <c r="AL38" s="194"/>
-      <c r="AM38" s="194"/>
-      <c r="AN38" s="194"/>
-      <c r="AO38" s="195"/>
+      <c r="AJ38" s="202"/>
+      <c r="AK38" s="203"/>
+      <c r="AL38" s="203"/>
+      <c r="AM38" s="203"/>
+      <c r="AN38" s="203"/>
+      <c r="AO38" s="204"/>
       <c r="AP38" s="146"/>
     </row>
     <row r="39" spans="1:246" s="39" customFormat="1" ht="4" customHeight="1">
@@ -14793,6 +14809,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AJ38:AO38"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AJ6:AO6"/>
     <mergeCell ref="B5:K6"/>
     <mergeCell ref="AD26:AI26"/>
     <mergeCell ref="AF29:AO29"/>
@@ -14803,12 +14825,6 @@
     <mergeCell ref="X5:AC5"/>
     <mergeCell ref="AD5:AI5"/>
     <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="AJ38:AO38"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="AJ6:AO6"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.27500000000000002" top="0.55069444444444404" bottom="0.55069444444444404" header="0.51111111111111096" footer="0.51111111111111096"/>
